--- a/RESULTS/2018/A  SET 2 [0..20] Double/Fit .xlsx
+++ b/RESULTS/2018/A  SET 2 [0..20] Double/Fit .xlsx
@@ -6,21 +6,21 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="14" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="15" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="14" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5 ethalon" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>Feature index</t>
   </si>
@@ -96,25 +96,25 @@
     <t>R2 Adjusted Test</t>
   </si>
   <si>
+    <t>11Linear010155</t>
+  </si>
+  <si>
+    <t>O-H</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>001101</t>
+  </si>
+  <si>
     <t>11Linear010055</t>
   </si>
   <si>
     <t>O-O</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>001100</t>
-  </si>
-  <si>
-    <t>11Linear010155</t>
-  </si>
-  <si>
-    <t>O-H</t>
-  </si>
-  <si>
-    <t>001101</t>
   </si>
   <si>
     <t>11Linear011155</t>
@@ -126,58 +126,55 @@
     <t>001111</t>
   </si>
   <si>
-    <t>11Linear130055</t>
-  </si>
-  <si>
-    <t>013100</t>
-  </si>
-  <si>
     <t>11Linear140055</t>
   </si>
   <si>
     <t>014100</t>
   </si>
   <si>
-    <t>11Linear030055</t>
+    <t>11Linear120055</t>
   </si>
   <si>
-    <t>003100</t>
+    <t>012100</t>
   </si>
   <si>
-    <t>21Linear0101001157</t>
+    <t>21Linear0201011156</t>
   </si>
   <si>
-    <t>21Linear0201001157</t>
+    <t>002101</t>
   </si>
   <si>
-    <t>002100</t>
+    <t>21Linear0203011157</t>
   </si>
   <si>
-    <t>21Linear0301001157</t>
+    <t>003111</t>
   </si>
   <si>
-    <t>21Linear0501001157</t>
+    <t>21Linear0402011157</t>
   </si>
   <si>
-    <t>005100</t>
+    <t>004101</t>
   </si>
   <si>
-    <t>21Linear0404001157</t>
+    <t>002111</t>
   </si>
   <si>
-    <t>004100</t>
+    <t>21Linear0402010156</t>
+  </si>
+  <si>
+    <t>21Linear0404011157</t>
   </si>
   <si>
     <t>004111</t>
   </si>
   <si>
-    <t>21Linear0603001157</t>
+    <t>21Linear0401111156</t>
+  </si>
+  <si>
+    <t>11Linear060055</t>
   </si>
   <si>
     <t>006100</t>
-  </si>
-  <si>
-    <t>003111</t>
   </si>
   <si>
     <t>21Linear0703001157</t>
@@ -186,127 +183,46 @@
     <t>007100</t>
   </si>
   <si>
+    <t>21Linear0707111157</t>
+  </si>
+  <si>
+    <t>007111</t>
+  </si>
+  <si>
+    <t>21Linear0607011157</t>
+  </si>
+  <si>
+    <t>006101</t>
+  </si>
+  <si>
+    <t>11Linear130055</t>
+  </si>
+  <si>
+    <t>013100</t>
+  </si>
+  <si>
+    <t>21Linear0201000156</t>
+  </si>
+  <si>
+    <t>002100</t>
+  </si>
+  <si>
     <t>11Linear040055</t>
   </si>
   <si>
-    <t>21Linear0604001157</t>
+    <t>004100</t>
   </si>
   <si>
-    <t>11Linear060055</t>
-  </si>
-  <si>
-    <t>11Linear080055</t>
-  </si>
-  <si>
-    <t>008100</t>
-  </si>
-  <si>
-    <t>21Linear0301011157</t>
-  </si>
-  <si>
-    <t>003101</t>
-  </si>
-  <si>
-    <t>21Linear0303001157</t>
-  </si>
-  <si>
-    <t>21Linear0101010157</t>
-  </si>
-  <si>
-    <t>11Linear120055</t>
-  </si>
-  <si>
-    <t>012100</t>
-  </si>
-  <si>
-    <t>21Linear0506011157</t>
-  </si>
-  <si>
-    <t>006111</t>
-  </si>
-  <si>
-    <t>005101</t>
-  </si>
-  <si>
-    <t>21Linear0601001157</t>
-  </si>
-  <si>
-    <t>21Linear0202001157</t>
-  </si>
-  <si>
-    <t>002111</t>
-  </si>
-  <si>
-    <t>21Linear0504000156</t>
-  </si>
-  <si>
-    <t>004101</t>
-  </si>
-  <si>
-    <t>11Linear020155</t>
-  </si>
-  <si>
-    <t>002101</t>
-  </si>
-  <si>
-    <t>21Linear0406011157</t>
-  </si>
-  <si>
-    <t>11Linear021155</t>
-  </si>
-  <si>
-    <t>21Linear0602000156</t>
-  </si>
-  <si>
-    <t>21Linear0702000156</t>
-  </si>
-  <si>
-    <t>21Linear0202011157</t>
-  </si>
-  <si>
-    <t>11Linear020055</t>
-  </si>
-  <si>
-    <t>21Linear0405011157</t>
-  </si>
-  <si>
-    <t>005111</t>
-  </si>
-  <si>
-    <t>21Linear0303011156</t>
-  </si>
-  <si>
-    <t>21Linear0701000156</t>
-  </si>
-  <si>
-    <t>21Linear0201011157</t>
-  </si>
-  <si>
-    <t>21Linear0305011157</t>
-  </si>
-  <si>
-    <t>21Linear0702001157</t>
-  </si>
-  <si>
-    <t>21Linear0403001157</t>
-  </si>
-  <si>
-    <t>21Linear0703000156</t>
+    <t>21Linear0101111156</t>
   </si>
   <si>
     <t>21Linear0303000156</t>
   </si>
   <si>
-    <t>21Linear0702010156</t>
+    <t>003100</t>
   </si>
   <si>
-    <t>007101</t>
-  </si>
-  <si>
-    <t>21Linear0401000156</t>
-  </si>
-  <si>
-    <t>21Linear0401001157</t>
+    <t>003101</t>
   </si>
   <si>
     <t>21Linear0701001157</t>
@@ -739,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -761,38 +677,38 @@
       <c r="J2" t="s"/>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.735555195378341</v>
+        <v>-0.3680724104991409</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>7.08598545838464e-13</v>
+        <v>8.005271515024312e-22</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.417829564908427e-07</v>
+        <v>2.829358852288679e-11</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9999999992876757</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9999999992819187</v>
+        <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>7.065891942102279e-13</v>
+        <v>8.047209294696076e-22</v>
       </c>
       <c r="U2" t="n">
-        <v>8.405885998574022e-07</v>
+        <v>2.836760352002981e-11</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9999999993758057</v>
+        <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9999999993549993</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -800,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -822,13 +738,13 @@
       <c r="J3" t="s"/>
       <c r="K3" t="s"/>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.3680685162054561</v>
+        <v>0.7361448210082524</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -873,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1845438135403616</v>
+        <v>0.1840362052489934</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -890,16 +806,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
@@ -918,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>6899.161158600614</v>
+        <v>-1.762516972259043e-06</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -935,16 +851,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" t="n">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
@@ -963,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>-6667.889026256917</v>
+        <v>1855.000213234049</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -980,7 +896,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
@@ -989,7 +905,7 @@
         <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
@@ -997,18 +913,26 @@
       <c r="G7" t="s">
         <v>37</v>
       </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.07591481837256708</v>
+        <v>1.542535543741508e-11</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -1025,43 +949,43 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>46</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
         <v>38</v>
       </c>
       <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.007906102900938183</v>
+        <v>-3.549986971052022e-10</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -1078,43 +1002,43 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
         <v>30</v>
       </c>
       <c r="I9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>0.04137345056471986</v>
+        <v>-1.179465414224978e-10</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -1131,43 +1055,43 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
       </c>
       <c r="E10" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
       <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
         <v>37</v>
       </c>
-      <c r="H10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I10" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" t="s">
-        <v>31</v>
-      </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.07763370021106411</v>
+        <v>-6.450759926224237e-10</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -1184,43 +1108,43 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
         <v>30</v>
       </c>
       <c r="I11" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="J11" t="s">
         <v>24</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.09435677363302375</v>
+        <v>1.206672095577233e-09</v>
       </c>
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
@@ -1237,13 +1161,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>64</v>
+        <v>228</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E12" t="n">
         <v>-4</v>
@@ -1258,13 +1182,13 @@
         <v>30</v>
       </c>
       <c r="I12" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="J12" t="s">
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="L12" t="n">
         <v>4</v>
@@ -1273,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.02261931568318687</v>
+        <v>1.080024958355352e-10</v>
       </c>
       <c r="O12" t="s"/>
       <c r="P12" t="s"/>
@@ -1290,13 +1214,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13" t="n">
         <v>-6</v>
@@ -1307,26 +1231,18 @@
       <c r="G13" t="s">
         <v>48</v>
       </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" t="s">
-        <v>49</v>
-      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s"/>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.2967343270377114</v>
+        <v>-1.896601466684789</v>
       </c>
       <c r="O13" t="s"/>
       <c r="P13" t="s"/>
@@ -1346,10 +1262,10 @@
         <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E14" t="n">
         <v>-7</v>
@@ -1358,7 +1274,7 @@
         <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
@@ -1370,7 +1286,7 @@
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="L14" t="n">
         <v>4</v>
@@ -1379,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.6560667014589399</v>
+        <v>-1.592629317315186e-08</v>
       </c>
       <c r="O14" t="s"/>
       <c r="P14" t="s"/>
@@ -1396,35 +1312,43 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
         <v>52</v>
       </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="n">
-        <v>-4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s"/>
-      <c r="J15" t="s"/>
-      <c r="K15" t="s"/>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-7</v>
+      </c>
+      <c r="J15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" t="s">
+        <v>52</v>
+      </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.3765927849401578</v>
+        <v>-1.180367803499394e-08</v>
       </c>
       <c r="O15" t="s"/>
       <c r="P15" t="s"/>
@@ -1441,43 +1365,43 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>84</v>
+        <v>282</v>
       </c>
       <c r="C16" t="s">
         <v>53</v>
       </c>
       <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" t="s">
         <v>23</v>
       </c>
-      <c r="E16" t="n">
+      <c r="I16" t="n">
         <v>-6</v>
       </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" t="n">
-        <v>-4</v>
-      </c>
       <c r="J16" t="s">
         <v>24</v>
       </c>
       <c r="K16" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1106553956640255</v>
+        <v>-2.917772690125275e-09</v>
       </c>
       <c r="O16" t="s"/>
       <c r="P16" t="s"/>
@@ -1581,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -1603,20 +1527,20 @@
       <c r="J2" t="s"/>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7361448210335521</v>
+        <v>-0.3680724105378753</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>8.003378917615758e-22</v>
+        <v>8.073371344298344e-22</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.829024375578224e-11</v>
+        <v>2.841367865007687e-11</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
@@ -1625,10 +1549,10 @@
         <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>7.910368967152037e-22</v>
+        <v>8.066162264181743e-22</v>
       </c>
       <c r="U2" t="n">
-        <v>2.812537816128352e-11</v>
+        <v>2.840098988447717e-11</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
@@ -1642,7 +1566,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -1664,13 +1588,13 @@
       <c r="J3" t="s"/>
       <c r="K3" t="s"/>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.3680724105272665</v>
+        <v>0.7361448210780868</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -1715,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.184036205271221</v>
+        <v>0.1840362052707492</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -1735,10 +1659,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
         <v>-6</v>
@@ -1760,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.896601464881114</v>
+        <v>-1.896601465099948</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -1780,10 +1704,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" t="n">
         <v>-12</v>
@@ -1792,7 +1716,7 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
@@ -1805,7 +1729,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>1855.000212570695</v>
+        <v>1855.000212469473</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -1822,43 +1746,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J7" t="s">
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>-2.905817997260842e-09</v>
+        <v>1.684680173141828e-12</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -1950,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -1968,20 +1892,20 @@
         <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7361448210698295</v>
+        <v>-0.3680724105371755</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>8.032557492481069e-22</v>
+        <v>8.073512047995665e-22</v>
       </c>
       <c r="M2" t="n">
-        <v>2.834176686884759e-11</v>
+        <v>2.841392624752106e-11</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -1990,10 +1914,10 @@
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>7.887683448392927e-22</v>
+        <v>8.066743509457472e-22</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.80850199366013e-11</v>
+        <v>2.840201314952423e-11</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
@@ -2007,7 +1931,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -2025,13 +1949,13 @@
         <v>28</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.3680724105345557</v>
+        <v>0.736144821072541</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -2072,7 +1996,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1840362052695297</v>
+        <v>0.1840362052715538</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -2092,10 +2016,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
         <v>-6</v>
@@ -2113,7 +2037,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.896601465134069</v>
+        <v>-1.896601464824373</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2133,10 +2057,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" t="n">
         <v>-12</v>
@@ -2145,7 +2069,7 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -2154,7 +2078,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1855.000212494525</v>
+        <v>1855.000212455572</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -2246,7 +2170,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -2264,38 +2188,38 @@
         <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7340571851564729</v>
+        <v>-0.3686336117651463</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>1.114909131763714e-07</v>
+        <v>1.084028979769584e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0003339025504190877</v>
+        <v>0.0003292459536227566</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9998879228747014</v>
+        <v>0.9998688207674585</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9998876827523119</v>
+        <v>0.9998685748832363</v>
       </c>
       <c r="P2" t="n">
-        <v>1.115952583462104e-07</v>
+        <v>1.061994544414981e-07</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0003340587648097418</v>
+        <v>0.0003258825776894158</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9999014177955525</v>
+        <v>0.9998930416236376</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9999005624185074</v>
+        <v>0.999892222019221</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2303,7 +2227,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -2321,13 +2245,13 @@
         <v>28</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.368154658958211</v>
+        <v>0.7352840710658344</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -2368,7 +2292,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1840778828504509</v>
+        <v>0.1843015903291246</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -2388,10 +2312,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
         <v>-13</v>
@@ -2400,7 +2324,7 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -2409,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>3635.290442004789</v>
+        <v>3632.710775701867</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2513,60 +2437,68 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="n">
-        <v>-6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
-      <c r="J2" t="s"/>
-      <c r="K2" t="s"/>
+      <c r="I2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>57.6034203765369</v>
+        <v>-1.506219700195117</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>2.866367517690301e-05</v>
+        <v>5.929994398779719e-05</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.005353846764421169</v>
+        <v>0.007700645686421184</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9711856130442028</v>
+        <v>0.9282406532736328</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9711393372621538</v>
+        <v>0.9281398204679283</v>
       </c>
       <c r="T2" t="n">
-        <v>2.891205613019711e-05</v>
+        <v>5.859557358322148e-05</v>
       </c>
       <c r="U2" t="n">
-        <v>0.005376993223930741</v>
+        <v>0.00765477456122788</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9744593608127874</v>
+        <v>0.9409856910711142</v>
       </c>
       <c r="W2" t="n">
-        <v>0.974293512506377</v>
+        <v>0.9406471768707573</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -2574,13 +2506,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E3" t="n">
         <v>-4</v>
@@ -2589,28 +2521,20 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s"/>
+      <c r="K3" t="s"/>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-9.868696302798892</v>
+        <v>13.03698376211636</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -2627,22 +2551,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>213</v>
+      </c>
+      <c r="C4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" t="s">
-        <v>92</v>
-      </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
         <v>30</v>
@@ -2663,7 +2587,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>4.942728646431568</v>
+        <v>0.141740608834855</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -2767,34 +2691,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="n">
-        <v>-7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
       <c r="I2" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="J2" t="s">
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="L2" t="n">
         <v>4</v>
@@ -2803,32 +2727,32 @@
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>38.92495163599065</v>
+        <v>-3.680361588913599</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>6.44756981453838e-05</v>
+        <v>5.488709093121732e-05</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.008029676092183533</v>
+        <v>0.007408582248393907</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9351852927393174</v>
+        <v>0.9335806828123586</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9351159351071497</v>
+        <v>0.93351849244046</v>
       </c>
       <c r="T2" t="n">
-        <v>7.303696802137586e-05</v>
+        <v>5.959577492201644e-05</v>
       </c>
       <c r="U2" t="n">
-        <v>0.008546166861311325</v>
+        <v>0.007719829980123685</v>
       </c>
       <c r="V2" t="n">
-        <v>0.9354798275445508</v>
+        <v>0.9399783420993544</v>
       </c>
       <c r="W2" t="n">
-        <v>0.9352011226959311</v>
+        <v>0.9397492518020236</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -2836,34 +2760,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E3" t="n">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="F3" t="s">
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I3" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="J3" t="s">
         <v>24</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="L3" t="n">
         <v>4</v>
@@ -2872,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-3.744832599880736</v>
+        <v>38.43658226548466</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -2967,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -2979,7 +2903,7 @@
         <v>24</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -2988,14 +2912,14 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7361448210698295</v>
+        <v>0.7361448210725398</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>8.032557492481069e-22</v>
+        <v>8.073512945552234e-22</v>
       </c>
       <c r="M2" t="n">
-        <v>2.834176686884759e-11</v>
+        <v>2.841392782695176e-11</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -3004,10 +2928,10 @@
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>7.887683448392927e-22</v>
+        <v>8.066744288517872e-22</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.80850199366013e-11</v>
+        <v>2.840201452101219e-11</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
@@ -3024,10 +2948,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -3036,7 +2960,7 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -3045,7 +2969,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.3680724105345557</v>
+        <v>-0.368072410537175</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -3086,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1840362052695297</v>
+        <v>0.1840362052715538</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -3106,10 +3030,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
         <v>-6</v>
@@ -3127,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.896601465134069</v>
+        <v>-1.896601464824358</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -3147,10 +3071,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" t="n">
         <v>-12</v>
@@ -3159,7 +3083,7 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -3168,7 +3092,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1855.000212494525</v>
+        <v>1855.000212455569</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -3272,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -3294,20 +3218,20 @@
       <c r="J2" t="s"/>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7361448207521413</v>
+        <v>-0.3680724105214858</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>7.880405619303445e-22</v>
+        <v>8.011870965689302e-22</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.807206016540903e-11</v>
+        <v>2.830524856928358e-11</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
@@ -3316,10 +3240,10 @@
         <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>8.027650551192693e-22</v>
+        <v>8.091045608726877e-22</v>
       </c>
       <c r="U2" t="n">
-        <v>2.833310881494068e-11</v>
+        <v>2.844476332952496e-11</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
@@ -3333,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -3355,13 +3279,13 @@
       <c r="J3" t="s"/>
       <c r="K3" t="s"/>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.3680724104472074</v>
+        <v>0.7361448210499256</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -3406,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.184036205278037</v>
+        <v>0.1840362052617506</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -3423,22 +3347,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>-6</v>
+        <v>-14</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s"/>
       <c r="I5" t="s"/>
@@ -3451,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.896601870439677</v>
+        <v>1.245422636575455e-06</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -3468,22 +3392,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" t="n">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
@@ -3496,7 +3420,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>1.649051875385332e-06</v>
+        <v>1855.000212427951</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -3513,35 +3437,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
-      <c r="J7" t="s"/>
-      <c r="K7" t="s"/>
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>2.520950088957807e-08</v>
+        <v>-2.077421568102977e-12</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -3558,13 +3490,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
         <v>-3</v>
@@ -3573,28 +3505,28 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I8" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>7.221279130220637e-11</v>
+        <v>-1.113971137556291e-10</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -3611,43 +3543,43 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
       </c>
       <c r="E9" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
         <v>30</v>
       </c>
       <c r="I9" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>4.6361536831796e-09</v>
+        <v>1.470947808002165e-10</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -3664,43 +3596,43 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I10" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>-2.011919519873118e-10</v>
+        <v>-5.232889677131425e-10</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -3717,35 +3649,43 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11" t="n">
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>1855.000206806202</v>
+        <v>4.822595656150952e-10</v>
       </c>
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
@@ -3762,43 +3702,43 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I12" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="J12" t="s">
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>-3.658331415579141e-09</v>
+        <v>7.526068657170981e-11</v>
       </c>
       <c r="O12" t="s"/>
       <c r="P12" t="s"/>
@@ -3815,13 +3755,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13" t="n">
         <v>-6</v>
@@ -3832,26 +3772,18 @@
       <c r="G13" t="s">
         <v>48</v>
       </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" t="s">
-        <v>31</v>
-      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s"/>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.689837403340277e-07</v>
+        <v>-1.896601465286224</v>
       </c>
       <c r="O13" t="s"/>
       <c r="P13" t="s"/>
@@ -3868,34 +3800,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E14" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
       </c>
       <c r="I14" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="J14" t="s">
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L14" t="n">
         <v>4</v>
@@ -3904,7 +3836,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>8.434230824860833e-08</v>
+        <v>-1.492267998060015e-08</v>
       </c>
       <c r="O14" t="s"/>
       <c r="P14" t="s"/>
@@ -3921,43 +3853,43 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>50</v>
+        <v>289</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E15" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="F15" t="s">
         <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
         <v>30</v>
       </c>
       <c r="I15" t="n">
-        <v>-2</v>
+        <v>-7</v>
       </c>
       <c r="J15" t="s">
         <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>-2.263878862152069e-09</v>
+        <v>-9.562100444782118e-09</v>
       </c>
       <c r="O15" t="s"/>
       <c r="P15" t="s"/>
@@ -4061,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -4083,20 +4015,20 @@
       <c r="J2" t="s"/>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7361448215072721</v>
+        <v>-0.3680724105055487</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>7.866795016711123e-22</v>
+        <v>8.030785845390135e-22</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.804780743072642e-11</v>
+        <v>2.83386411907666e-11</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
@@ -4105,10 +4037,10 @@
         <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>8.02826749908902e-22</v>
+        <v>8.084343509789222e-22</v>
       </c>
       <c r="U2" t="n">
-        <v>2.833419753423241e-11</v>
+        <v>2.843297998766436e-11</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
@@ -4122,7 +4054,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -4144,13 +4076,13 @@
       <c r="J3" t="s"/>
       <c r="K3" t="s"/>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.3680724109138819</v>
+        <v>0.7361448210212695</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -4195,7 +4127,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1840362055458142</v>
+        <v>0.1840362052541689</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -4212,22 +4144,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>-6</v>
+        <v>-14</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s"/>
       <c r="I5" t="s"/>
@@ -4240,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.896601499843642</v>
+        <v>3.86376757011142e-06</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -4257,22 +4189,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" t="n">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
@@ -4285,7 +4217,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>-4.730579530075329e-05</v>
+        <v>1855.000211670827</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -4302,43 +4234,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I7" t="n">
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="J7" t="s">
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>-7.67140137525324e-09</v>
+        <v>-2.07856232226078e-11</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -4355,35 +4287,43 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="n">
         <v>-2</v>
       </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>4.216715865368315e-10</v>
+        <v>9.933653899452111e-11</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -4400,43 +4340,43 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>262</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="n">
-        <v>-6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
       <c r="I9" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>2.299031365282644e-08</v>
+        <v>2.488320660631871e-10</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -4453,35 +4393,43 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="n">
         <v>-2</v>
       </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-      <c r="K10" t="s"/>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>-5.133244940225268e-10</v>
+        <v>-5.122018365000258e-10</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -4498,35 +4446,43 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11" t="n">
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>1855.000239155022</v>
+        <v>-7.141807145671919e-10</v>
       </c>
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
@@ -4543,43 +4499,43 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I12" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="J12" t="s">
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>-4.022309596507512e-08</v>
+        <v>1.653006620472297e-10</v>
       </c>
       <c r="O12" t="s"/>
       <c r="P12" t="s"/>
@@ -4596,43 +4552,35 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" t="s">
-        <v>68</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s"/>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>2.146206767861258e-09</v>
+        <v>-1.896601463884124</v>
       </c>
       <c r="O13" t="s"/>
       <c r="P13" t="s"/>
@@ -4649,34 +4597,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E14" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="F14" t="s">
         <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
         <v>30</v>
       </c>
       <c r="I14" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="J14" t="s">
         <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="L14" t="n">
         <v>4</v>
@@ -4685,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>-2.400738452479345e-08</v>
+        <v>-3.514980306817961e-09</v>
       </c>
       <c r="O14" t="s"/>
       <c r="P14" t="s"/>
@@ -4789,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -4811,20 +4759,20 @@
       <c r="J2" t="s"/>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7361448214536392</v>
+        <v>-0.3680724105067794</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>7.874272284138254e-22</v>
+        <v>8.031542984660844e-22</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.806113376921584e-11</v>
+        <v>2.833997703714815e-11</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
@@ -4833,10 +4781,10 @@
         <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>8.001403162584437e-22</v>
+        <v>8.085590121294398e-22</v>
       </c>
       <c r="U2" t="n">
-        <v>2.828675160315238e-11</v>
+        <v>2.843517209600532e-11</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
@@ -4850,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -4872,13 +4820,13 @@
       <c r="J3" t="s"/>
       <c r="K3" t="s"/>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.3680724107958265</v>
+        <v>0.7361448210182289</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -4923,7 +4871,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1840362054281464</v>
+        <v>0.1840362052563176</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -4940,22 +4888,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
-        <v>-6</v>
+        <v>-14</v>
       </c>
       <c r="F5" t="s">
         <v>24</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s"/>
       <c r="I5" t="s"/>
@@ -4968,7 +4916,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.896601493804302</v>
+        <v>5.141903454797259e-06</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -4985,43 +4933,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" t="n">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" t="s">
-        <v>72</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>1.295367434844819e-07</v>
+        <v>1855.000211274902</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -5038,43 +4978,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J7" t="s">
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>-2.984166744129935e-07</v>
+        <v>-2.470884608030133e-11</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -5091,35 +5031,43 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="n">
         <v>-2</v>
       </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>2.517959174497264e-10</v>
+        <v>7.752465336352543e-11</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -5136,43 +5084,43 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>262</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="n">
-        <v>-6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
       <c r="I9" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>2.887786543226412e-08</v>
+        <v>2.43963071966391e-10</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -5189,35 +5137,43 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="n">
         <v>-2</v>
       </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-      <c r="K10" t="s"/>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>-2.146993693941113e-10</v>
+        <v>-4.769846739804962e-10</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -5234,35 +5190,43 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11" t="n">
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>1855.000215597335</v>
+        <v>-7.937615009723231e-10</v>
       </c>
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
@@ -5279,43 +5243,43 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I12" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="J12" t="s">
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>-4.967786404463936e-08</v>
+        <v>1.71439751284197e-10</v>
       </c>
       <c r="O12" t="s"/>
       <c r="P12" t="s"/>
@@ -5332,43 +5296,35 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
       </c>
       <c r="E13" t="n">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="F13" t="s">
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" t="s">
-        <v>68</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s"/>
       <c r="L13" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>7.958433911881002e-11</v>
+        <v>-1.896601462802892</v>
       </c>
       <c r="O13" t="s"/>
       <c r="P13" t="s"/>
@@ -5472,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -5494,20 +5450,20 @@
       <c r="J2" t="s"/>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7361448210369719</v>
+        <v>-0.368072410513637</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>7.884360442917064e-22</v>
+        <v>8.03169223254164e-22</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.807910333845628e-11</v>
+        <v>2.834024035279454e-11</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
@@ -5516,10 +5472,10 @@
         <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>7.995450608596688e-22</v>
+        <v>8.084876881236984e-22</v>
       </c>
       <c r="U2" t="n">
-        <v>2.827622784000137e-11</v>
+        <v>2.843391791722868e-11</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
@@ -5533,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -5555,13 +5511,13 @@
       <c r="J3" t="s"/>
       <c r="K3" t="s"/>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.3680724106310179</v>
+        <v>0.736144821037337</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -5606,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.18403620536254</v>
+        <v>0.1840362052578924</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -5626,10 +5582,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
         <v>-6</v>
@@ -5651,7 +5607,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.896601511804819</v>
+        <v>-1.896601465220978</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -5668,43 +5624,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" t="n">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" t="s">
-        <v>72</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>2.265657230323109e-07</v>
+        <v>1855.000212567008</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -5721,43 +5669,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J7" t="s">
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>-4.801228097473252e-07</v>
+        <v>-1.548089434422195e-11</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -5774,35 +5722,43 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="n">
+      <c r="I8" t="n">
         <v>-2</v>
       </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>7.677138300077324e-10</v>
+        <v>2.684504181449388e-11</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -5819,43 +5775,43 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>262</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="n">
-        <v>-6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
       <c r="I9" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>2.443075119005936e-08</v>
+        <v>2.014289759294519e-10</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -5872,35 +5828,43 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="n">
         <v>-2</v>
       </c>
-      <c r="F10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s"/>
-      <c r="J10" t="s"/>
-      <c r="K10" t="s"/>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.178125513812134e-10</v>
+        <v>-4.410562600906665e-10</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -5917,35 +5881,43 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11" t="n">
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>1855.000216427978</v>
+        <v>-7.219275663383762e-10</v>
       </c>
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
@@ -5962,43 +5934,43 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
       </c>
       <c r="E12" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="F12" t="s">
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I12" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="J12" t="s">
         <v>24</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>-4.203655641557959e-08</v>
+        <v>1.657154795331461e-10</v>
       </c>
       <c r="O12" t="s"/>
       <c r="P12" t="s"/>
@@ -6102,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -6124,20 +6096,20 @@
       <c r="J2" t="s"/>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.736144821110859</v>
+        <v>-0.3680724105364231</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>7.929836288521875e-22</v>
+        <v>8.047313793418388e-22</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.815996500090488e-11</v>
+        <v>2.836778770616135e-11</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
@@ -6146,10 +6118,10 @@
         <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>8.030192485059645e-22</v>
+        <v>8.09839444587244e-22</v>
       </c>
       <c r="U2" t="n">
-        <v>2.833759426108654e-11</v>
+        <v>2.845767813064242e-11</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
@@ -6163,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -6185,13 +6157,13 @@
       <c r="J3" t="s"/>
       <c r="K3" t="s"/>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.3680724105355515</v>
+        <v>0.7361448210766335</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -6236,7 +6208,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1840362052539048</v>
+        <v>0.1840362052700865</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -6256,10 +6228,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
         <v>-6</v>
@@ -6281,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.896601488268875</v>
+        <v>-1.896601465296948</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -6298,43 +6270,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" t="n">
-        <v>-6</v>
+        <v>-12</v>
       </c>
       <c r="F6" t="s">
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" t="s">
-        <v>72</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s"/>
+      <c r="J6" t="s"/>
+      <c r="K6" t="s"/>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>1.144125047537769e-07</v>
+        <v>1855.000212533776</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -6351,43 +6315,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J7" t="s">
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>-2.594609438924967e-07</v>
+        <v>-5.083017340368201e-12</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -6404,35 +6368,43 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="n">
+      <c r="I8" t="n">
         <v>-2</v>
       </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s"/>
-      <c r="J8" t="s"/>
-      <c r="K8" t="s"/>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>1.47164069125294e-10</v>
+        <v>1.83252390692501e-10</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -6449,43 +6421,43 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>247</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
       <c r="I9" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.314319690787821e-09</v>
+        <v>2.117815939978174e-10</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -6502,43 +6474,43 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I10" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="L10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>1.209456475942394e-10</v>
+        <v>-6.33885368674092e-10</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -6555,35 +6527,43 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
       </c>
       <c r="E11" t="n">
-        <v>-12</v>
+        <v>-4</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
-      <c r="J11" t="s"/>
-      <c r="K11" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>1855.000215066303</v>
+        <v>-3.709423159262148e-10</v>
       </c>
       <c r="O11" t="s"/>
       <c r="P11" t="s"/>
@@ -6687,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -6709,20 +6689,20 @@
       <c r="J2" t="s"/>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7361448209663801</v>
+        <v>-0.3680724105450406</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>7.918909217317671e-22</v>
+        <v>8.052710532479882e-22</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.814055652846559e-11</v>
+        <v>2.837729820204856e-11</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
@@ -6731,10 +6711,10 @@
         <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>7.967009720975152e-22</v>
+        <v>8.111758953043547e-22</v>
       </c>
       <c r="U2" t="n">
-        <v>2.822589187426174e-11</v>
+        <v>2.848114982412674e-11</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
@@ -6748,7 +6728,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -6770,13 +6750,13 @@
       <c r="J3" t="s"/>
       <c r="K3" t="s"/>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.3680724104590185</v>
+        <v>0.7361448210889769</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -6821,7 +6801,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1840362052174236</v>
+        <v>0.1840362052740897</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -6841,10 +6821,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
         <v>-6</v>
@@ -6866,7 +6846,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.896601462921731</v>
+        <v>-1.896601465995069</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -6886,10 +6866,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" t="n">
         <v>-12</v>
@@ -6898,7 +6878,7 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
@@ -6911,7 +6891,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>1855.000213680511</v>
+        <v>1855.000212591772</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -6928,25 +6908,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I7" t="n">
         <v>-1</v>
@@ -6955,16 +6935,16 @@
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.909639824672653e-08</v>
+        <v>1.642119773492823e-11</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -6981,43 +6961,43 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>111</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="n">
         <v>-2</v>
       </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-1</v>
-      </c>
       <c r="J8" t="s">
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>3.430083994615529e-11</v>
+        <v>-7.905341312119951e-11</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -7034,43 +7014,43 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>247</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
       <c r="I9" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.417009715571097e-08</v>
+        <v>3.963472605672536e-11</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -7087,34 +7067,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>246</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E10" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="F10" t="s">
         <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I10" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="J10" t="s">
         <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="L10" t="n">
         <v>2</v>
@@ -7123,7 +7103,7 @@
         <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>8.128481341902576e-09</v>
+        <v>-5.259859691894575e-10</v>
       </c>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -7227,7 +7207,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -7249,20 +7229,20 @@
       <c r="J2" t="s"/>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7361448210237909</v>
+        <v>-0.3680724105709139</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>7.939725215261586e-22</v>
+        <v>8.063211775068171e-22</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.817751801571882e-11</v>
+        <v>2.839579506734786e-11</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
@@ -7271,10 +7251,10 @@
         <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>7.949854569251558e-22</v>
+        <v>8.106505955813174e-22</v>
       </c>
       <c r="U2" t="n">
-        <v>2.819548646370826e-11</v>
+        <v>2.847192644661259e-11</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
@@ -7288,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -7310,13 +7290,13 @@
       <c r="J3" t="s"/>
       <c r="K3" t="s"/>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.3680724104855874</v>
+        <v>0.7361448211585035</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -7361,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.184036205232059</v>
+        <v>0.1840362052817056</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -7381,10 +7361,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
         <v>-6</v>
@@ -7406,7 +7386,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.896601469381863</v>
+        <v>-1.896601468112138</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -7426,10 +7406,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" t="n">
         <v>-12</v>
@@ -7438,7 +7418,7 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
@@ -7451,7 +7431,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>1855.000213496711</v>
+        <v>1855.000212693028</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -7468,43 +7448,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
         <v>30</v>
       </c>
       <c r="I7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J7" t="s">
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>-4.568249795964066e-08</v>
+        <v>2.872552196109268e-11</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -7521,43 +7501,43 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>63</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="n">
-        <v>-4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="J8" t="s">
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>6.397384159743946e-09</v>
+        <v>-1.331438934798479e-10</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
@@ -7574,43 +7554,43 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>247</v>
+        <v>138</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="n">
-        <v>-5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" t="s">
-        <v>27</v>
-      </c>
       <c r="I9" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
       <c r="J9" t="s">
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.92295955802604e-09</v>
+        <v>-3.047956852186839e-11</v>
       </c>
       <c r="O9" t="s"/>
       <c r="P9" t="s"/>
@@ -7714,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
@@ -7736,20 +7716,20 @@
       <c r="J2" t="s"/>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.7361448212548218</v>
+        <v>-0.3680724105719453</v>
       </c>
       <c r="O2" t="s"/>
       <c r="P2" t="n">
-        <v>7.966398803975004e-22</v>
+        <v>8.063725911106399e-22</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.822480966096141e-11</v>
+        <v>2.839670035603855e-11</v>
       </c>
       <c r="R2" t="n">
         <v>1</v>
@@ -7758,10 +7738,10 @@
         <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>7.934617259198137e-22</v>
+        <v>8.107412944639547e-22</v>
       </c>
       <c r="U2" t="n">
-        <v>2.816845267173569e-11</v>
+        <v>2.847351917947542e-11</v>
       </c>
       <c r="V2" t="n">
         <v>1</v>
@@ -7775,7 +7755,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -7797,13 +7777,13 @@
       <c r="J3" t="s"/>
       <c r="K3" t="s"/>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.3680724105844043</v>
+        <v>0.7361448211584198</v>
       </c>
       <c r="O3" t="s"/>
       <c r="P3" t="s"/>
@@ -7848,7 +7828,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1840362052730573</v>
+        <v>0.1840362052830441</v>
       </c>
       <c r="O4" t="s"/>
       <c r="P4" t="s"/>
@@ -7868,10 +7848,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E5" t="n">
         <v>-6</v>
@@ -7893,7 +7873,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="n">
-        <v>-1.89660148329294</v>
+        <v>-1.896601467667262</v>
       </c>
       <c r="O5" t="s"/>
       <c r="P5" t="s"/>
@@ -7913,10 +7893,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E6" t="n">
         <v>-12</v>
@@ -7925,7 +7905,7 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s"/>
       <c r="I6" t="s"/>
@@ -7938,7 +7918,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>1855.000214327696</v>
+        <v>1855.000212653554</v>
       </c>
       <c r="O6" t="s"/>
       <c r="P6" t="s"/>
@@ -7955,43 +7935,43 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="F7" t="s">
         <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I7" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="J7" t="s">
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>-1.041734074355642e-07</v>
+        <v>2.500380458236862e-11</v>
       </c>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -8008,13 +7988,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53</v>
+        <v>224</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
         <v>-3</v>
@@ -8023,28 +8003,28 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-2</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" t="s">
         <v>37</v>
       </c>
-      <c r="H8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" t="s">
-        <v>58</v>
-      </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>4.867079022577089e-09</v>
+        <v>-1.451682368064366e-10</v>
       </c>
       <c r="O8" t="s"/>
       <c r="P8" t="s"/>
